--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/Variables_nivel_especie_frutal.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/Variables_nivel_especie_frutal.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87254764-C960-49DF-9064-A21CF932175D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA5BD63-B720-4B1D-9AC0-67EECA946289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99756344-BA65-43F8-AE28-F080CBDAA536}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{99756344-BA65-43F8-AE28-F080CBDAA536}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Almendro</t>
   </si>
@@ -240,17 +241,32 @@
     <t>Propietarios</t>
   </si>
   <si>
-    <t>puestos de trabajo</t>
-  </si>
-  <si>
     <t>Exportaciones país</t>
+  </si>
+  <si>
+    <t>Trabajadores dependientes</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Tramo según ventas</t>
+  </si>
+  <si>
+    <t>Tipo empresa</t>
+  </si>
+  <si>
+    <t>Número empresas</t>
+  </si>
+  <si>
+    <t>soya, canola, cártamo, algodón, girasol, olivo, maíz, lino, cacahuate y ajonjolí. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +274,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF404041"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,8 +307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,78 +625,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3456EFA2-5229-475F-BD3C-9854AED8A5D6}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" customWidth="1"/>
-    <col min="10" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" customWidth="1"/>
-    <col min="15" max="15" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -682,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -690,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -698,7 +740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -706,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -714,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -722,7 +764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -730,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -738,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -746,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -754,7 +796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -762,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -770,7 +812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1034,7 +1076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1042,7 +1084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1058,7 +1100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1066,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1074,7 +1116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1082,7 +1124,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1090,15 +1132,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="P56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1109,4 +1163,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712BAC1-F2BF-4A11-B8C5-BB2A558A67E3}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Repositorio Agricultura/Para power bi/Chile/Agricola/Variables_nivel_especie_frutal.xlsx
+++ b/Repositorio Agricultura/Para power bi/Chile/Agricola/Variables_nivel_especie_frutal.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Claudia_G\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\Chile\Agricola\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA5BD63-B720-4B1D-9AC0-67EECA946289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B60A4-CFCB-4AB9-A8EF-B8887950E399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{99756344-BA65-43F8-AE28-F080CBDAA536}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99756344-BA65-43F8-AE28-F080CBDAA536}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="fuente" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Almendro</t>
   </si>
@@ -260,6 +261,24 @@
   </si>
   <si>
     <t>soya, canola, cártamo, algodón, girasol, olivo, maíz, lino, cacahuate y ajonjolí. </t>
+  </si>
+  <si>
+    <t>Producción (ton)</t>
+  </si>
+  <si>
+    <t>Producción (t) uva de mesa, pisco y vino</t>
+  </si>
+  <si>
+    <t>Estadísticas regionales</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/economia/economia-regional/repositorio-de-estadisticas-regionales</t>
+  </si>
+  <si>
+    <t>Uva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si </t>
   </si>
 </sst>
 </file>
@@ -625,29 +644,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3456EFA2-5229-475F-BD3C-9854AED8A5D6}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="9" topLeftCell="J55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" customWidth="1"/>
-    <col min="11" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" customWidth="1"/>
-    <col min="16" max="16" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
+    <col min="12" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" customWidth="1"/>
+    <col min="17" max="17" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>56</v>
       </c>
@@ -658,57 +678,60 @@
         <v>58</v>
       </c>
       <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -716,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -724,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -732,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -740,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -748,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -756,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -764,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -772,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -780,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -788,7 +811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -796,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -804,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -812,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1076,7 +1099,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1084,7 +1107,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1092,7 +1115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1100,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1108,7 +1131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1116,7 +1139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1124,7 +1147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1132,14 +1155,23 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
         <v>70</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -1151,8 +1183,11 @@
       <c r="S56" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1166,10 +1201,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42430A78-4B8B-4A51-8EA1-D2517884EC23}">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="45.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712BAC1-F2BF-4A11-B8C5-BB2A558A67E3}">
   <dimension ref="C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
